--- a/Andrew-annotations/CVU_Q3_2019.xlsx
+++ b/Andrew-annotations/CVU_Q3_2019.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrew\Desktop\School\College\Fall 2023\VIP 3602\SubjECTive-QA\Andrew-annotations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D2632C7-8EEB-4BB8-AF47-B2BE98248362}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AAA63B3-DE6C-4052-8779-CC385E0E3D4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -486,7 +486,7 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -607,10 +607,10 @@
         <v>2</v>
       </c>
       <c r="F4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H4">
         <v>2</v>
@@ -735,10 +735,10 @@
         <v>2</v>
       </c>
       <c r="F8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H8">
         <v>2</v>
